--- a/data/trans_orig/P1417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD1D194-2B4B-4EBA-B118-161A41B40F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A0CC61-05DB-4EEA-90CF-76C0D80160B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F58EEAB3-3DD9-4606-9418-A2B189F01F4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA86D07A-57B7-499E-827D-099DFDA36111}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="401">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,1195 +92,1156 @@
     <t>Si</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>95,37%</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0B67A4-14C6-4F69-AF1B-AB8F6ABDC05A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E7973-78A7-47DF-BDC0-E84C97EE1B72}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2079,7 +2040,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -2088,13 +2049,13 @@
         <v>9210</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2103,13 +2064,13 @@
         <v>10212</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,10 +2085,10 @@
         <v>734486</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -2139,13 +2100,13 @@
         <v>616284</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>1284</v>
@@ -2154,13 +2115,13 @@
         <v>1350770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,7 +2177,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2234,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2249,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2285,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2294,13 +2255,13 @@
         <v>12470</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2309,13 +2270,13 @@
         <v>13352</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,10 +2291,10 @@
         <v>637786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -2345,13 +2306,13 @@
         <v>677274</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>1259</v>
@@ -2360,13 +2321,13 @@
         <v>1315060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2383,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2440,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2485,13 +2446,13 @@
         <v>1818</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2500,13 +2461,13 @@
         <v>6736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2515,13 +2476,13 @@
         <v>8555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,10 +2497,10 @@
         <v>517329</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -2551,13 +2512,13 @@
         <v>508906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7">
         <v>977</v>
@@ -2566,13 +2527,13 @@
         <v>1026234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,7 +2589,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2646,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2661,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2676,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,7 +2658,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -2706,13 +2667,13 @@
         <v>9176</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2721,13 +2682,13 @@
         <v>9176</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2706,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -2757,13 +2718,13 @@
         <v>394810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M22" s="7">
         <v>779</v>
@@ -2772,13 +2733,13 @@
         <v>781520</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2795,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2852,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2867,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2882,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2858,13 @@
         <v>8834</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2912,13 +2873,13 @@
         <v>19177</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2927,13 +2888,13 @@
         <v>28011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2909,13 @@
         <v>493632</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -2963,13 +2924,13 @@
         <v>657665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>1158</v>
@@ -2978,13 +2939,13 @@
         <v>1151297</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3073,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3088,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3064,13 @@
         <v>13481</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -3118,13 +3079,13 @@
         <v>57673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -3133,13 +3094,13 @@
         <v>71154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3115,13 @@
         <v>3263063</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7">
         <v>3242</v>
@@ -3169,28 +3130,28 @@
         <v>3321525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>6443</v>
       </c>
       <c r="N30" s="7">
-        <v>6584586</v>
+        <v>6584587</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,7 +3193,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>26</v>
@@ -3246,7 +3207,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E44203-7A97-49DA-9EA3-7ACC06C36A03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463E05AE-B446-48BB-BA82-AE1998CE3BD7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3285,7 +3246,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3398,7 +3359,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3413,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3428,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3458,13 +3419,13 @@
         <v>3892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3473,13 +3434,13 @@
         <v>3892</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,7 +3458,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -3509,13 +3470,13 @@
         <v>426338</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="M6" s="7">
         <v>863</v>
@@ -3524,13 +3485,13 @@
         <v>880484</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3565,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3619,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3655,7 +3616,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3664,13 +3625,13 @@
         <v>10922</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3679,13 +3640,13 @@
         <v>11880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,10 +3661,10 @@
         <v>686128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -3715,13 +3676,13 @@
         <v>599333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>1227</v>
@@ -3730,13 +3691,13 @@
         <v>1285462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,7 +3753,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3810,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3825,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3861,7 +3822,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3870,13 +3831,13 @@
         <v>28244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3885,13 +3846,13 @@
         <v>29274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,10 +3867,10 @@
         <v>680833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3921,13 +3882,13 @@
         <v>681330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>1289</v>
@@ -3936,13 +3897,13 @@
         <v>1362163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +3959,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4016,7 +3977,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4031,7 +3992,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4046,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4022,13 @@
         <v>3109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4076,13 +4037,13 @@
         <v>15905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -4091,13 +4052,13 @@
         <v>19014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4073,13 @@
         <v>611508</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H18" s="7">
         <v>523</v>
@@ -4127,13 +4088,13 @@
         <v>597312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>1068</v>
@@ -4142,13 +4103,13 @@
         <v>1208820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4165,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4222,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4237,7 +4198,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4252,7 +4213,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4228,13 @@
         <v>2009</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4282,13 +4243,13 @@
         <v>11553</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -4297,13 +4258,13 @@
         <v>13562</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,10 +4279,10 @@
         <v>427420</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -4333,13 +4294,13 @@
         <v>436247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M22" s="7">
         <v>786</v>
@@ -4348,13 +4309,13 @@
         <v>863667</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4371,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4443,7 +4404,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4458,7 +4419,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4434,13 @@
         <v>8218</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4488,13 +4449,13 @@
         <v>26044</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -4503,13 +4464,13 @@
         <v>34262</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4485,13 @@
         <v>551419</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>670</v>
@@ -4539,13 +4500,13 @@
         <v>716931</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>1166</v>
@@ -4554,13 +4515,13 @@
         <v>1268350</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,7 +4595,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4649,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4664,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4640,13 @@
         <v>15324</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>90</v>
@@ -4694,13 +4655,13 @@
         <v>96559</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -4709,13 +4670,13 @@
         <v>111884</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4691,13 @@
         <v>3411455</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>3205</v>
@@ -4745,28 +4706,28 @@
         <v>3457493</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>6399</v>
       </c>
       <c r="N30" s="7">
-        <v>6868946</v>
+        <v>6868947</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4769,7 @@
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980830</v>
+        <v>6980831</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>26</v>
@@ -4822,7 +4783,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4844,7 +4805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACB7D11-4DF6-4CEE-B0F9-760A3A500E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDDDBAF-65C7-4DF3-8666-D1C271E1AA84}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4861,7 +4822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4974,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4989,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5004,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +4980,13 @@
         <v>2047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5034,13 +4995,13 @@
         <v>5775</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5049,13 +5010,13 @@
         <v>7822</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,10 +5031,10 @@
         <v>417416</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -5085,13 +5046,13 @@
         <v>389980</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>789</v>
@@ -5100,13 +5061,13 @@
         <v>807396</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5141,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5195,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5210,7 +5171,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5186,13 @@
         <v>1016</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -5240,13 +5201,13 @@
         <v>10763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5255,13 +5216,13 @@
         <v>11780</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,10 +5237,10 @@
         <v>589480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -5291,13 +5252,13 @@
         <v>552781</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>1134</v>
@@ -5306,13 +5267,13 @@
         <v>1142260</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,7 +5329,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5386,7 +5347,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5401,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5431,13 +5392,13 @@
         <v>1587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5446,13 +5407,13 @@
         <v>14225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -5461,13 +5422,13 @@
         <v>15812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,10 +5443,10 @@
         <v>667510</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5497,13 +5458,13 @@
         <v>647161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>1287</v>
@@ -5512,13 +5473,13 @@
         <v>1314671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5535,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5592,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5622,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5598,13 @@
         <v>3085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5652,13 +5613,13 @@
         <v>14406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5667,13 +5628,13 @@
         <v>17490</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5649,13 @@
         <v>642963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="H18" s="7">
         <v>589</v>
@@ -5703,28 +5664,28 @@
         <v>634671</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>1168</v>
       </c>
       <c r="N18" s="7">
-        <v>1277635</v>
+        <v>1277636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,7 +5727,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -5780,7 +5741,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5798,7 +5759,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5813,7 +5774,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5828,7 +5789,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5804,13 @@
         <v>2133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -5858,13 +5819,13 @@
         <v>12756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -5873,13 +5834,13 @@
         <v>14888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,10 +5855,10 @@
         <v>475785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -5909,13 +5870,13 @@
         <v>484093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="M22" s="7">
         <v>844</v>
@@ -5924,13 +5885,13 @@
         <v>959879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5947,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6004,7 +5965,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6019,7 +5980,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6049,13 +6010,13 @@
         <v>9228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6064,13 +6025,13 @@
         <v>28948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -6079,13 +6040,13 @@
         <v>38177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6061,13 @@
         <v>582100</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -6115,13 +6076,13 @@
         <v>748983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -6130,13 +6091,13 @@
         <v>1331082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6171,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6225,7 +6186,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6240,7 +6201,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6216,13 @@
         <v>19096</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -6270,13 +6231,13 @@
         <v>86874</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>100</v>
@@ -6285,13 +6246,13 @@
         <v>105970</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6267,13 @@
         <v>3375254</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H30" s="7">
         <v>3257</v>
@@ -6321,13 +6282,13 @@
         <v>3457668</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="M30" s="7">
         <v>6469</v>
@@ -6336,13 +6297,13 @@
         <v>6832922</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6359,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6420,7 +6381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FD79-DD8A-46CF-8F14-675E32803B86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FD9F1B-02BB-4E48-92F5-2B16187E9519}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6437,7 +6398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6550,7 +6511,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6565,7 +6526,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6580,7 +6541,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,7 +6562,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6610,13 +6571,13 @@
         <v>7924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6625,13 +6586,13 @@
         <v>7924</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,7 +6610,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -6661,13 +6622,13 @@
         <v>347033</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>375</v>
@@ -6676,13 +6637,13 @@
         <v>724712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,7 +6717,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6765,13 +6726,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6780,13 +6741,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,7 +6768,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -6816,13 +6777,13 @@
         <v>11752</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -6831,13 +6792,13 @@
         <v>11752</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,7 +6816,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -6867,13 +6828,13 @@
         <v>486826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>751</v>
@@ -6882,13 +6843,13 @@
         <v>915222</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,7 +6905,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6962,7 +6923,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6971,13 +6932,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6986,13 +6947,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +6968,13 @@
         <v>5824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -7022,13 +6983,13 @@
         <v>32478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -7037,13 +6998,13 @@
         <v>38302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7019,13 @@
         <v>551428</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>797</v>
@@ -7073,13 +7034,13 @@
         <v>550279</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>1338</v>
@@ -7088,13 +7049,13 @@
         <v>1101707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,7 +7111,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7168,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7177,13 +7138,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7192,7 +7153,7 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -7213,13 +7174,13 @@
         <v>2889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -7228,13 +7189,13 @@
         <v>40806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -7243,13 +7204,13 @@
         <v>43696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7225,13 @@
         <v>719723</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="H18" s="7">
         <v>1077</v>
@@ -7279,13 +7240,13 @@
         <v>706047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="M18" s="7">
         <v>1737</v>
@@ -7294,13 +7255,13 @@
         <v>1425771</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>366</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,7 +7317,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7374,7 +7335,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7383,13 +7344,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>354</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7398,13 +7359,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>54</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7380,13 @@
         <v>8288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>368</v>
+        <v>187</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>214</v>
+        <v>358</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -7434,13 +7395,13 @@
         <v>15817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -7449,13 +7410,13 @@
         <v>24106</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>372</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7431,13 @@
         <v>589869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>374</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>972</v>
@@ -7485,13 +7446,13 @@
         <v>576369</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>1622</v>
@@ -7500,13 +7461,13 @@
         <v>1166238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,7 +7523,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7595,7 +7556,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7610,7 +7571,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,13 +7586,13 @@
         <v>23584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
@@ -7640,13 +7601,13 @@
         <v>55473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>252</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -7655,13 +7616,13 @@
         <v>79057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7637,13 @@
         <v>672162</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
         <v>1601</v>
@@ -7691,13 +7652,13 @@
         <v>968253</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>2588</v>
@@ -7706,13 +7667,13 @@
         <v>1640416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,7 +7747,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -7795,13 +7756,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7810,13 +7771,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,13 +7792,13 @@
         <v>40585</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>129</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>99</v>
       </c>
       <c r="H29" s="7">
         <v>254</v>
@@ -7846,13 +7807,13 @@
         <v>164251</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>401</v>
+        <v>97</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="M29" s="7">
         <v>313</v>
@@ -7861,13 +7822,13 @@
         <v>204836</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7843,13 @@
         <v>3339257</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>409</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>5099</v>
@@ -7897,13 +7858,13 @@
         <v>3634809</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M30" s="7">
         <v>8411</v>
@@ -7912,13 +7873,13 @@
         <v>6974065</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>413</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,7 +7935,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A0CC61-05DB-4EEA-90CF-76C0D80160B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7E5A6D-DA33-4784-AB4C-8D630D0A84FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA86D07A-57B7-499E-827D-099DFDA36111}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DF9D0AB-03B6-4484-BE3D-90D78D5138C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="410">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,1150 +92,1177 @@
     <t>Si</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
     <t>94,89%</t>
   </si>
   <si>
     <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
   </si>
   <si>
     <t>96,72%</t>
@@ -1653,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E7973-78A7-47DF-BDC0-E84C97EE1B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C3FC7E-3B26-420E-A523-A55F95724E76}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2040,7 +2067,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -2049,13 +2076,13 @@
         <v>9210</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2064,7 +2091,7 @@
         <v>10212</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>13</v>
@@ -2088,7 +2115,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -2100,13 +2127,13 @@
         <v>616284</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
         <v>1284</v>
@@ -2461,13 +2488,13 @@
         <v>6736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2476,13 +2503,13 @@
         <v>8555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,10 +2524,10 @@
         <v>517329</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -2512,13 +2539,13 @@
         <v>508906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>977</v>
@@ -2527,13 +2554,13 @@
         <v>1026234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2616,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2607,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2622,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2637,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -2667,13 +2694,13 @@
         <v>9176</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2682,13 +2709,13 @@
         <v>9176</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2733,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -2718,13 +2745,13 @@
         <v>394810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>779</v>
@@ -2733,13 +2760,13 @@
         <v>781520</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2822,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2813,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2843,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2885,13 @@
         <v>8834</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2873,13 +2900,13 @@
         <v>19177</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2888,13 +2915,13 @@
         <v>28011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2936,13 @@
         <v>493632</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -3070,7 +3097,7 @@
         <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -3079,10 +3106,10 @@
         <v>57673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>116</v>
@@ -3094,13 +3121,13 @@
         <v>71154</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,16 +3139,16 @@
         <v>3201</v>
       </c>
       <c r="D30" s="7">
-        <v>3263063</v>
+        <v>3263062</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>3242</v>
@@ -3130,13 +3157,13 @@
         <v>3321525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="M30" s="7">
         <v>6443</v>
@@ -3145,13 +3172,13 @@
         <v>6584587</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3190,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>26</v>
@@ -3207,7 +3234,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463E05AE-B446-48BB-BA82-AE1998CE3BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D22E8D-9EF8-4D5F-9F80-C8533A563BE9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3246,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3359,7 +3386,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3374,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3389,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3419,13 +3446,13 @@
         <v>3892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3434,13 +3461,13 @@
         <v>3892</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,7 +3485,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -3470,13 +3497,13 @@
         <v>426338</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
         <v>863</v>
@@ -3485,13 +3512,13 @@
         <v>880484</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3616,7 +3643,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3625,13 +3652,13 @@
         <v>10922</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3640,13 +3667,13 @@
         <v>11880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,7 +3691,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -3676,13 +3703,13 @@
         <v>599333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>1227</v>
@@ -3691,13 +3718,13 @@
         <v>1285462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3849,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3831,13 +3858,13 @@
         <v>28244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3846,13 +3873,13 @@
         <v>29274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,10 +3894,10 @@
         <v>680833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3882,13 +3909,13 @@
         <v>681330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>1289</v>
@@ -3897,13 +3924,13 @@
         <v>1362163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,7 +4019,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4007,7 +4034,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4049,13 @@
         <v>3109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4037,13 +4064,13 @@
         <v>15905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -4052,13 +4079,13 @@
         <v>19014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4100,13 @@
         <v>611508</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H18" s="7">
         <v>523</v>
@@ -4088,13 +4115,13 @@
         <v>597312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M18" s="7">
         <v>1068</v>
@@ -4103,13 +4130,13 @@
         <v>1208820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4192,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4183,7 +4210,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4198,7 +4225,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4213,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4255,13 @@
         <v>2009</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4243,13 +4270,13 @@
         <v>11553</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -4258,13 +4285,13 @@
         <v>13562</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,10 +4306,10 @@
         <v>427420</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -4294,13 +4321,13 @@
         <v>436247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
         <v>786</v>
@@ -4309,13 +4336,13 @@
         <v>863667</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4398,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4404,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4419,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4461,13 @@
         <v>8218</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -4449,13 +4476,13 @@
         <v>26044</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -4464,13 +4491,13 @@
         <v>34262</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4512,13 @@
         <v>551419</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="H26" s="7">
         <v>670</v>
@@ -4500,13 +4527,13 @@
         <v>716931</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>1166</v>
@@ -4515,13 +4542,13 @@
         <v>1268350</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4667,13 @@
         <v>15324</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>90</v>
@@ -4655,13 +4682,13 @@
         <v>96559</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -4670,13 +4697,13 @@
         <v>111884</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4718,13 @@
         <v>3411455</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>3205</v>
@@ -4706,28 +4733,28 @@
         <v>3457493</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>6399</v>
       </c>
       <c r="N30" s="7">
-        <v>6868947</v>
+        <v>6868946</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +4796,7 @@
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980831</v>
+        <v>6980830</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>26</v>
@@ -4783,7 +4810,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4805,7 +4832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDDDBAF-65C7-4DF3-8666-D1C271E1AA84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962898FA-1236-4BC7-8324-A2B9C6FF97F2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4822,7 +4849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4935,7 +4962,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4950,7 +4977,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4965,7 +4992,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +5007,13 @@
         <v>2047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4995,13 +5022,13 @@
         <v>5775</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5010,13 +5037,13 @@
         <v>7822</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,10 +5058,10 @@
         <v>417416</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -5046,13 +5073,13 @@
         <v>389980</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>789</v>
@@ -5061,13 +5088,13 @@
         <v>807396</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5168,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5156,7 +5183,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5171,7 +5198,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5213,13 @@
         <v>1016</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -5201,13 +5228,13 @@
         <v>10763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5216,13 +5243,13 @@
         <v>11780</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,10 +5264,10 @@
         <v>589480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -5252,13 +5279,13 @@
         <v>552781</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>1134</v>
@@ -5267,13 +5294,13 @@
         <v>1142260</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5392,13 +5419,13 @@
         <v>1587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5407,13 +5434,13 @@
         <v>14225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -5422,13 +5449,13 @@
         <v>15812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,10 +5470,10 @@
         <v>667510</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5458,13 +5485,13 @@
         <v>647161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>1287</v>
@@ -5473,13 +5500,13 @@
         <v>1314671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5583,7 +5610,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5625,13 @@
         <v>3085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5613,13 +5640,13 @@
         <v>14406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5628,13 +5655,13 @@
         <v>17490</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5676,13 @@
         <v>642963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="H18" s="7">
         <v>589</v>
@@ -5664,28 +5691,28 @@
         <v>634671</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>1168</v>
       </c>
       <c r="N18" s="7">
-        <v>1277636</v>
+        <v>1277635</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,7 +5754,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -5741,7 +5768,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5759,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5774,7 +5801,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5789,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5831,13 @@
         <v>2133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -5819,13 +5846,13 @@
         <v>12756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -5834,13 +5861,13 @@
         <v>14888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,10 +5882,10 @@
         <v>475785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -5870,13 +5897,13 @@
         <v>484093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>844</v>
@@ -5885,13 +5912,13 @@
         <v>959879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,7 +5974,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6010,13 +6037,13 @@
         <v>9228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6025,13 +6052,13 @@
         <v>28948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -6040,13 +6067,13 @@
         <v>38177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6088,13 @@
         <v>582100</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -6076,13 +6103,13 @@
         <v>748983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -6091,13 +6118,13 @@
         <v>1331082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6243,13 @@
         <v>19096</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -6231,13 +6258,13 @@
         <v>86874</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>100</v>
@@ -6246,13 +6273,13 @@
         <v>105970</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6294,13 @@
         <v>3375254</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="H30" s="7">
         <v>3257</v>
@@ -6282,13 +6309,13 @@
         <v>3457668</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M30" s="7">
         <v>6469</v>
@@ -6297,13 +6324,13 @@
         <v>6832922</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,7 +6386,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +6408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FD9F1B-02BB-4E48-92F5-2B16187E9519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409736CB-9B62-416B-A601-7A1D6D983584}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6398,7 +6425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6511,7 +6538,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6526,7 +6553,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6541,7 +6568,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,7 +6589,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6571,13 +6598,13 @@
         <v>7924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6586,13 +6613,13 @@
         <v>7924</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,7 +6637,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -6622,13 +6649,13 @@
         <v>347033</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M6" s="7">
         <v>375</v>
@@ -6637,13 +6664,13 @@
         <v>724712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,7 +6744,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6726,13 +6753,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6741,13 +6768,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,7 +6795,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -6777,13 +6804,13 @@
         <v>11752</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -6792,13 +6819,13 @@
         <v>11752</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6843,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -6828,13 +6855,13 @@
         <v>486826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>751</v>
@@ -6843,13 +6870,13 @@
         <v>915222</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6959,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6947,13 +6974,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6995,13 @@
         <v>5824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -6983,13 +7010,13 @@
         <v>32478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -6998,13 +7025,13 @@
         <v>38302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +7046,13 @@
         <v>551428</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>797</v>
@@ -7034,13 +7061,13 @@
         <v>550279</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
         <v>1338</v>
@@ -7049,13 +7076,13 @@
         <v>1101707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,7 +7165,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7177,10 +7204,10 @@
         <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -7189,13 +7216,13 @@
         <v>40806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -7204,13 +7231,13 @@
         <v>43696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7252,13 @@
         <v>719723</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H18" s="7">
         <v>1077</v>
@@ -7240,13 +7267,13 @@
         <v>706047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M18" s="7">
         <v>1737</v>
@@ -7255,13 +7282,13 @@
         <v>1425771</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,7 +7344,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7344,13 +7371,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>354</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7359,13 +7386,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7407,13 @@
         <v>8288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>357</v>
+        <v>146</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -7395,13 +7422,13 @@
         <v>15817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>359</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -7410,13 +7437,13 @@
         <v>24106</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7458,13 @@
         <v>589869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>972</v>
@@ -7446,13 +7473,13 @@
         <v>576369</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>1622</v>
@@ -7461,13 +7488,13 @@
         <v>1166238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7550,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7556,7 +7583,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7571,7 +7598,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7613,13 @@
         <v>23584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
@@ -7601,13 +7628,13 @@
         <v>55473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -7616,13 +7643,13 @@
         <v>79057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7664,13 @@
         <v>672162</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>1601</v>
@@ -7652,13 +7679,13 @@
         <v>968253</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>2588</v>
@@ -7667,13 +7694,13 @@
         <v>1640416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,13 +7783,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7771,13 +7798,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,13 +7819,13 @@
         <v>40585</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="H29" s="7">
         <v>254</v>
@@ -7807,13 +7834,13 @@
         <v>164251</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>390</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>313</v>
@@ -7822,13 +7849,13 @@
         <v>204836</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7870,13 @@
         <v>3339257</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>109</v>
+        <v>405</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H30" s="7">
         <v>5099</v>
@@ -7858,13 +7885,13 @@
         <v>3634809</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>398</v>
+        <v>89</v>
       </c>
       <c r="M30" s="7">
         <v>8411</v>
@@ -7873,13 +7900,13 @@
         <v>6974065</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7935,7 +7962,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAEFC715-940D-4CAB-8570-BA61FB3E9983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAC2E96-AC21-428A-9E94-FD2E7CC3F19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D9B2C5B-B269-461F-956D-B403BA352850}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{498C1C30-FDE9-486C-A695-DC2735392BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="430">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -110,7 +110,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -161,7 +161,7 @@
     <t>99,63%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -206,7 +206,7 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -257,7 +257,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0%</t>
@@ -305,55 +305,112 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -365,18 +422,12 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>1,29%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>1,34%</t>
   </si>
   <si>
@@ -389,9 +440,6 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
     <t>97,78%</t>
   </si>
   <si>
@@ -401,9 +449,6 @@
     <t>98,66%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
@@ -620,598 +665,670 @@
     <t>97,35%</t>
   </si>
   <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>94,43%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>97,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
   </si>
 </sst>
 </file>
@@ -1623,8 +1740,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985885BA-3BFD-4637-A3FB-107A37D0A967}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525E3D04-675D-4FB3-9B2B-2CBBEBB3B98C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2516,46 +2633,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>8834</v>
+        <v>4333</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6530</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="7">
+        <v>11</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10863</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19177</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="7">
-        <v>26</v>
-      </c>
-      <c r="N19" s="7">
-        <v>28011</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>96</v>
@@ -2567,10 +2684,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>515</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>493632</v>
+        <v>288250</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>97</v>
@@ -2579,37 +2696,37 @@
         <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="7">
+        <v>364</v>
+      </c>
+      <c r="I20" s="7">
+        <v>336404</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="7">
+        <v>663</v>
+      </c>
+      <c r="N20" s="7">
+        <v>624654</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H20" s="7">
-        <v>643</v>
-      </c>
-      <c r="I20" s="7">
-        <v>657665</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1158</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1151297</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,10 +2735,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -2633,10 +2750,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -2648,10 +2765,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -2665,55 +2782,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>13481</v>
+        <v>4501</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>57673</v>
+        <v>12647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>71154</v>
+        <v>17147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,49 +2839,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3201</v>
+        <v>216</v>
       </c>
       <c r="D23" s="7">
-        <v>3263063</v>
+        <v>205382</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
-        <v>3242</v>
+        <v>279</v>
       </c>
       <c r="I23" s="7">
-        <v>3321525</v>
+        <v>321261</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
-        <v>6443</v>
+        <v>495</v>
       </c>
       <c r="N23" s="7">
-        <v>6584586</v>
+        <v>526644</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,63 +2890,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>13</v>
+      </c>
+      <c r="D25" s="7">
+        <v>13481</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="7">
+        <v>55</v>
+      </c>
+      <c r="I25" s="7">
+        <v>57673</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" s="7">
+        <v>68</v>
+      </c>
+      <c r="N25" s="7">
+        <v>71154</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3201</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3263062</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3242</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3321524</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6443</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6584587</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2842,8 +3115,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71160FF6-6EF3-494A-8139-EC399645E6F7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE32085D-555E-4E55-A293-FCBD2A1DA399}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2859,7 +3132,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2972,7 +3245,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2981,13 +3254,13 @@
         <v>3892</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2996,13 +3269,13 @@
         <v>3892</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3293,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3032,13 +3305,13 @@
         <v>426338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>863</v>
@@ -3047,13 +3320,13 @@
         <v>880484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3400,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3136,13 +3409,13 @@
         <v>10922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3151,13 +3424,13 @@
         <v>11880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3448,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3187,13 +3460,13 @@
         <v>599333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -3202,13 +3475,13 @@
         <v>1285462</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3549,13 @@
         <v>1030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3291,13 +3564,13 @@
         <v>28244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3306,13 +3579,13 @@
         <v>29274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,10 +3600,10 @@
         <v>680833</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3342,13 +3615,13 @@
         <v>681330</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>1289</v>
@@ -3357,13 +3630,13 @@
         <v>1362163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3704,13 @@
         <v>3109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3446,13 +3719,13 @@
         <v>15905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3461,13 +3734,13 @@
         <v>19014</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3755,13 @@
         <v>611508</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -3497,13 +3770,13 @@
         <v>597312</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1068</v>
@@ -3512,13 +3785,13 @@
         <v>1208820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3859,13 @@
         <v>2009</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3601,13 +3874,13 @@
         <v>11553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3616,13 +3889,13 @@
         <v>13562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,10 +3910,10 @@
         <v>427420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3652,13 +3925,13 @@
         <v>436247</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>786</v>
@@ -3667,10 +3940,10 @@
         <v>863667</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>48</v>
@@ -3735,49 +4008,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>8218</v>
+        <v>6133</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>26044</v>
+        <v>10720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>34262</v>
+        <v>16853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,49 +4059,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>496</v>
+        <v>276</v>
       </c>
       <c r="D20" s="7">
-        <v>551419</v>
+        <v>303653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
-        <v>670</v>
+        <v>334</v>
       </c>
       <c r="I20" s="7">
-        <v>716931</v>
+        <v>343276</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
-        <v>1166</v>
+        <v>610</v>
       </c>
       <c r="N20" s="7">
-        <v>1268350</v>
+        <v>646929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -3852,10 +4125,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -3867,10 +4140,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -3884,55 +4157,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
+        <v>2085</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="7">
+        <v>14</v>
+      </c>
+      <c r="I22" s="7">
         <v>15324</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="7">
-        <v>90</v>
-      </c>
-      <c r="I22" s="7">
-        <v>96559</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>111884</v>
+        <v>17409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,49 +4214,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3194</v>
+        <v>220</v>
       </c>
       <c r="D23" s="7">
-        <v>3411455</v>
+        <v>247766</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>3205</v>
+        <v>336</v>
       </c>
       <c r="I23" s="7">
-        <v>3457493</v>
+        <v>373655</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="M23" s="7">
-        <v>6399</v>
+        <v>556</v>
       </c>
       <c r="N23" s="7">
-        <v>6868946</v>
+        <v>621421</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,63 +4265,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15324</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="7">
+        <v>90</v>
+      </c>
+      <c r="I25" s="7">
+        <v>96559</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" s="7">
+        <v>105</v>
+      </c>
+      <c r="N25" s="7">
+        <v>111884</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3194</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3411455</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3205</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3457493</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6399</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6868947</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3554052</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
-        <v>6980830</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
+      <c r="N27" s="7">
+        <v>6980831</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4061,8 +4490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D067DD-6BEA-4253-9B0D-618321F1019D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4AB1A9-D24E-49C6-B88E-A58E0010A928}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4078,7 +4507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4191,7 +4620,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4200,13 +4629,13 @@
         <v>5775</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4218,10 +4647,10 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,7 +4668,7 @@
         <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4251,13 +4680,13 @@
         <v>389980</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>789</v>
@@ -4269,10 +4698,10 @@
         <v>18</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4769,13 @@
         <v>1016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4355,13 +4784,13 @@
         <v>10763</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4370,13 +4799,13 @@
         <v>11780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,10 +4820,10 @@
         <v>589480</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4406,10 +4835,10 @@
         <v>552781</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>84</v>
@@ -4421,13 +4850,13 @@
         <v>1142260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4924,13 @@
         <v>1587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4510,13 +4939,13 @@
         <v>14225</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4525,13 +4954,13 @@
         <v>15812</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,10 +4975,10 @@
         <v>667510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4561,13 +4990,13 @@
         <v>647161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -4576,13 +5005,13 @@
         <v>1314671</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +5079,13 @@
         <v>3085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4665,13 +5094,13 @@
         <v>14406</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4680,13 +5109,13 @@
         <v>17490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,10 +5130,10 @@
         <v>642963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4716,10 +5145,10 @@
         <v>634671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>85</v>
@@ -4731,13 +5160,13 @@
         <v>1277635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4820,13 +5249,13 @@
         <v>12756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4841,7 +5270,7 @@
         <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,7 +5288,7 @@
         <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4871,13 +5300,13 @@
         <v>484093</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -4889,7 +5318,7 @@
         <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>51</v>
@@ -4954,49 +5383,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>9228</v>
+        <v>4959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>267</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>28948</v>
+        <v>11296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>38177</v>
+        <v>16254</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,49 +5434,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>617</v>
+        <v>320</v>
       </c>
       <c r="D20" s="7">
-        <v>582100</v>
+        <v>329371</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7">
-        <v>630</v>
+        <v>343</v>
       </c>
       <c r="I20" s="7">
-        <v>748983</v>
+        <v>366466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
-        <v>1247</v>
+        <v>663</v>
       </c>
       <c r="N20" s="7">
-        <v>1331082</v>
+        <v>695838</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,10 +5485,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -5071,10 +5500,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -5086,10 +5515,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -5103,55 +5532,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4269</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="7">
+        <v>14</v>
+      </c>
+      <c r="I22" s="7">
+        <v>17653</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M22" s="7">
         <v>19</v>
       </c>
-      <c r="D22" s="7">
-        <v>19096</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="7">
-        <v>81</v>
-      </c>
-      <c r="I22" s="7">
-        <v>86874</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M22" s="7">
-        <v>100</v>
-      </c>
       <c r="N22" s="7">
-        <v>105970</v>
+        <v>21922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,49 +5589,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3212</v>
+        <v>297</v>
       </c>
       <c r="D23" s="7">
-        <v>3375254</v>
+        <v>252729</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
+        <v>309</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="H23" s="7">
-        <v>3257</v>
+        <v>287</v>
       </c>
       <c r="I23" s="7">
-        <v>3457668</v>
+        <v>382516</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="M23" s="7">
-        <v>6469</v>
+        <v>584</v>
       </c>
       <c r="N23" s="7">
-        <v>6832922</v>
+        <v>635245</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,63 +5640,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19096</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="7">
+        <v>81</v>
+      </c>
+      <c r="I25" s="7">
+        <v>86874</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M25" s="7">
+        <v>100</v>
+      </c>
+      <c r="N25" s="7">
+        <v>105970</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3212</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3375254</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3257</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3457668</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6469</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6832922</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5280,8 +5865,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2B2624-28E1-454B-8273-02BDDE95052E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CE0AE1-526B-4BD5-8369-626292972F7E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5297,7 +5882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5410,37 +5995,37 @@
         <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>7924</v>
+        <v>9168</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>7924</v>
+        <v>9168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +6037,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -5467,31 +6052,31 @@
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>347033</v>
+        <v>304032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M5" s="7">
         <v>375</v>
       </c>
       <c r="N5" s="7">
-        <v>724712</v>
+        <v>704019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,7 +6088,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -5518,7 +6103,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>22</v>
@@ -5533,7 +6118,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>22</v>
@@ -5565,37 +6150,37 @@
         <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>11752</v>
+        <v>11062</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>11752</v>
+        <v>11062</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +6192,13 @@
         <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -5622,31 +6207,31 @@
         <v>449</v>
       </c>
       <c r="I8" s="7">
-        <v>486825</v>
+        <v>500442</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>751</v>
       </c>
       <c r="N8" s="7">
-        <v>915221</v>
+        <v>923989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +6243,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -5673,7 +6258,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -5688,7 +6273,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -5711,46 +6296,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5824</v>
+        <v>5627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>32478</v>
+        <v>30415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
       </c>
       <c r="N10" s="7">
-        <v>38302</v>
+        <v>36042</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +6347,13 @@
         <v>541</v>
       </c>
       <c r="D11" s="7">
-        <v>551428</v>
+        <v>530711</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>39</v>
@@ -5777,31 +6362,31 @@
         <v>797</v>
       </c>
       <c r="I11" s="7">
-        <v>550280</v>
+        <v>511384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>1338</v>
       </c>
       <c r="N11" s="7">
-        <v>1101708</v>
+        <v>1042095</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,7 +6398,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -5828,7 +6413,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -5843,7 +6428,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140010</v>
+        <v>1078137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -5866,46 +6451,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2889</v>
+        <v>2754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>40806</v>
+        <v>38261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>43696</v>
+        <v>41015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,46 +6502,46 @@
         <v>660</v>
       </c>
       <c r="D14" s="7">
-        <v>719723</v>
+        <v>883719</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>1077</v>
       </c>
       <c r="I14" s="7">
-        <v>706048</v>
+        <v>674237</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>1737</v>
       </c>
       <c r="N14" s="7">
-        <v>1425770</v>
+        <v>1557957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +6553,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722612</v>
+        <v>886473</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -5983,7 +6568,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>22</v>
@@ -5998,7 +6583,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1469466</v>
+        <v>1598972</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>22</v>
@@ -6021,46 +6606,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>8288</v>
+        <v>7983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>15817</v>
+        <v>14550</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>24106</v>
+        <v>22533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,46 +6657,46 @@
         <v>650</v>
       </c>
       <c r="D17" s="7">
-        <v>589869</v>
+        <v>551369</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>972</v>
       </c>
       <c r="I17" s="7">
-        <v>576370</v>
+        <v>529064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>1622</v>
       </c>
       <c r="N17" s="7">
-        <v>1166237</v>
+        <v>1080432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,7 +6708,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598157</v>
+        <v>559352</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -6138,7 +6723,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592187</v>
+        <v>543614</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>22</v>
@@ -6153,7 +6738,7 @@
         <v>1659</v>
       </c>
       <c r="N18" s="7">
-        <v>1190343</v>
+        <v>1102965</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>22</v>
@@ -6173,49 +6758,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>23584</v>
+        <v>10365</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>55473</v>
+        <v>13080</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>79057</v>
+        <v>23445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,49 +6809,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>987</v>
+        <v>552</v>
       </c>
       <c r="D20" s="7">
-        <v>672162</v>
+        <v>357082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
-        <v>1601</v>
+        <v>798</v>
       </c>
       <c r="I20" s="7">
-        <v>968253</v>
+        <v>593561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
-        <v>2588</v>
+        <v>1350</v>
       </c>
       <c r="N20" s="7">
-        <v>1640416</v>
+        <v>950643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,10 +6860,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>695746</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -6290,10 +6875,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>1703</v>
+        <v>824</v>
       </c>
       <c r="I21" s="7">
-        <v>1023726</v>
+        <v>606641</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -6305,10 +6890,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>2729</v>
+        <v>1393</v>
       </c>
       <c r="N21" s="7">
-        <v>1719473</v>
+        <v>974088</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -6322,55 +6907,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>40585</v>
+        <v>12034</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="I22" s="7">
-        <v>164251</v>
+        <v>36539</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="N22" s="7">
-        <v>204836</v>
+        <v>48573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>28</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,49 +6964,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3312</v>
+        <v>435</v>
       </c>
       <c r="D23" s="7">
-        <v>3339257</v>
+        <v>269631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
-        <v>5099</v>
+        <v>803</v>
       </c>
       <c r="I23" s="7">
-        <v>3634808</v>
+        <v>388399</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>207</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
-        <v>8411</v>
+        <v>1238</v>
       </c>
       <c r="N23" s="7">
-        <v>6974066</v>
+        <v>658030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,63 +7015,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281665</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424938</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706603</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7">
+        <v>38763</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="7">
+        <v>254</v>
+      </c>
+      <c r="I25" s="7">
+        <v>153074</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M25" s="7">
+        <v>313</v>
+      </c>
+      <c r="N25" s="7">
+        <v>191837</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3312</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3416046</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5099</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3501120</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8411</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6917166</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3379842</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3454809</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>5353</v>
       </c>
-      <c r="I24" s="7">
-        <v>3799059</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3654194</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>8724</v>
       </c>
-      <c r="N24" s="7">
-        <v>7178902</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
+      <c r="N27" s="7">
+        <v>7109003</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
